--- a/medicine/Psychotrope/Dolcetto_delle_Langhe_Monregalesi_superiore/Dolcetto_delle_Langhe_Monregalesi_superiore.xlsx
+++ b/medicine/Psychotrope/Dolcetto_delle_Langhe_Monregalesi_superiore/Dolcetto_delle_Langhe_Monregalesi_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dolcetto delle Langhe Monregalesi superiore  est un vin italien de la région Piémont doté d'une appellation DOC depuis le 6 juillet 1974. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Coni dans les communes de Briaglia, Carrù, Castellino Tanaro, Marsaglia, Mondovì, Murazzano, Piozzo et Vicoforte.
@@ -514,7 +526,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis à tendance violacé
 odeur : délicat, caractéristique
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,7 +618,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponible 
